--- a/CashFlow/DD_cashflow.xlsx
+++ b/CashFlow/DD_cashflow.xlsx
@@ -76,7 +76,7 @@
     <col min="1" max="1" bestFit="1" customWidth="1" width="28.6"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="16.5"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="16.5"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="16.5"/>
     <col min="6" max="6" bestFit="1" customWidth="1" width="16.5"/>
     <col min="7" max="7" bestFit="1" customWidth="1" width="16.5"/>
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>16345000000.0</v>
+        <v>570000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>16938000000.0</v>
+        <v>360000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>13073000000.0</v>
+        <v>73000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>9262000000.0</v>
+        <v>447000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>4658000000.0</v>
+        <v>387000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-21000000.0</v>
@@ -990,10 +990,10 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>177000000.0</v>
+        <v>11127000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>-201000000.0</v>
+        <v>11097000000.0</v>
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
